--- a/files/tourism.xlsx
+++ b/files/tourism.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tufan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tufan\Documents\GitHub\fall20-tufanbt\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF1B3F3-3871-4B97-A74E-B0FFF8E8652E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D102C99-C23C-4A85-B357-08F2338D26D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="1305" windowWidth="11670" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,301 +36,301 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>2012-01</t>
+  </si>
+  <si>
+    <t>2012-02</t>
+  </si>
+  <si>
+    <t>2012-03</t>
+  </si>
+  <si>
+    <t>2012-04</t>
+  </si>
+  <si>
+    <t>2012-05</t>
+  </si>
+  <si>
+    <t>2012-06</t>
+  </si>
+  <si>
+    <t>2012-07</t>
+  </si>
+  <si>
+    <t>2012-08</t>
+  </si>
+  <si>
+    <t>2012-09</t>
+  </si>
+  <si>
+    <t>2012-10</t>
+  </si>
+  <si>
+    <t>2012-11</t>
+  </si>
+  <si>
+    <t>2012-12</t>
+  </si>
+  <si>
+    <t>2013-01</t>
+  </si>
+  <si>
+    <t>2013-02</t>
+  </si>
+  <si>
+    <t>2013-03</t>
+  </si>
+  <si>
+    <t>2013-04</t>
+  </si>
+  <si>
+    <t>2013-05</t>
+  </si>
+  <si>
+    <t>2013-06</t>
+  </si>
+  <si>
+    <t>2013-07</t>
+  </si>
+  <si>
+    <t>2013-08</t>
+  </si>
+  <si>
+    <t>2013-09</t>
+  </si>
+  <si>
+    <t>2013-10</t>
+  </si>
+  <si>
+    <t>2013-11</t>
+  </si>
+  <si>
+    <t>2013-12</t>
+  </si>
+  <si>
+    <t>2014-01</t>
+  </si>
+  <si>
+    <t>2014-02</t>
+  </si>
+  <si>
+    <t>2014-03</t>
+  </si>
+  <si>
+    <t>2014-04</t>
+  </si>
+  <si>
+    <t>2014-05</t>
+  </si>
+  <si>
+    <t>2014-06</t>
+  </si>
+  <si>
+    <t>2014-07</t>
+  </si>
+  <si>
+    <t>2014-08</t>
+  </si>
+  <si>
+    <t>2014-09</t>
+  </si>
+  <si>
+    <t>2014-10</t>
+  </si>
+  <si>
+    <t>2014-11</t>
+  </si>
+  <si>
+    <t>2014-12</t>
+  </si>
+  <si>
+    <t>2015-01</t>
+  </si>
+  <si>
+    <t>2015-02</t>
+  </si>
+  <si>
+    <t>2015-03</t>
+  </si>
+  <si>
+    <t>2015-04</t>
+  </si>
+  <si>
+    <t>2015-05</t>
+  </si>
+  <si>
+    <t>2015-06</t>
+  </si>
+  <si>
+    <t>2015-07</t>
+  </si>
+  <si>
+    <t>2015-08</t>
+  </si>
+  <si>
+    <t>2015-09</t>
+  </si>
+  <si>
+    <t>2015-10</t>
+  </si>
+  <si>
+    <t>2015-11</t>
+  </si>
+  <si>
+    <t>2015-12</t>
+  </si>
+  <si>
+    <t>2016-01</t>
+  </si>
+  <si>
+    <t>2016-02</t>
+  </si>
+  <si>
+    <t>2016-03</t>
+  </si>
+  <si>
+    <t>2016-04</t>
+  </si>
+  <si>
+    <t>2016-05</t>
+  </si>
+  <si>
+    <t>2016-06</t>
+  </si>
+  <si>
+    <t>2016-07</t>
+  </si>
+  <si>
+    <t>2016-08</t>
+  </si>
+  <si>
+    <t>2016-09</t>
+  </si>
+  <si>
+    <t>2016-10</t>
+  </si>
+  <si>
+    <t>2016-11</t>
+  </si>
+  <si>
+    <t>2016-12</t>
+  </si>
+  <si>
+    <t>2017-01</t>
+  </si>
+  <si>
+    <t>2017-02</t>
+  </si>
+  <si>
+    <t>2017-03</t>
+  </si>
+  <si>
+    <t>2017-04</t>
+  </si>
+  <si>
+    <t>2017-05</t>
+  </si>
+  <si>
+    <t>2017-06</t>
+  </si>
+  <si>
+    <t>2017-07</t>
+  </si>
+  <si>
+    <t>2017-08</t>
+  </si>
+  <si>
+    <t>2017-09</t>
+  </si>
+  <si>
+    <t>2017-10</t>
+  </si>
+  <si>
+    <t>2017-11</t>
+  </si>
+  <si>
+    <t>2017-12</t>
+  </si>
+  <si>
+    <t>2018-01</t>
+  </si>
+  <si>
+    <t>2018-02</t>
+  </si>
+  <si>
+    <t>2018-03</t>
+  </si>
+  <si>
+    <t>2018-04</t>
+  </si>
+  <si>
+    <t>2018-05</t>
+  </si>
+  <si>
+    <t>2018-06</t>
+  </si>
+  <si>
+    <t>2018-07</t>
+  </si>
+  <si>
+    <t>2018-08</t>
+  </si>
+  <si>
+    <t>2018-09</t>
+  </si>
+  <si>
+    <t>2018-10</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2018-12</t>
+  </si>
+  <si>
+    <t>2019-01</t>
+  </si>
+  <si>
+    <t>2019-02</t>
+  </si>
+  <si>
+    <t>2019-03</t>
+  </si>
+  <si>
+    <t>2019-04</t>
+  </si>
+  <si>
+    <t>2019-05</t>
+  </si>
+  <si>
+    <t>2019-06</t>
+  </si>
+  <si>
+    <t>2019-07</t>
+  </si>
+  <si>
+    <t>2019-08</t>
+  </si>
+  <si>
+    <t>2019-09</t>
+  </si>
+  <si>
+    <t>2019-10</t>
+  </si>
+  <si>
+    <t>2019-11</t>
+  </si>
+  <si>
+    <t>2019-12</t>
+  </si>
+  <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>trend</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>2012-01</t>
-  </si>
-  <si>
-    <t>2012-02</t>
-  </si>
-  <si>
-    <t>2012-03</t>
-  </si>
-  <si>
-    <t>2012-04</t>
-  </si>
-  <si>
-    <t>2012-05</t>
-  </si>
-  <si>
-    <t>2012-06</t>
-  </si>
-  <si>
-    <t>2012-07</t>
-  </si>
-  <si>
-    <t>2012-08</t>
-  </si>
-  <si>
-    <t>2012-09</t>
-  </si>
-  <si>
-    <t>2012-10</t>
-  </si>
-  <si>
-    <t>2012-11</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>2013-01</t>
-  </si>
-  <si>
-    <t>2013-02</t>
-  </si>
-  <si>
-    <t>2013-03</t>
-  </si>
-  <si>
-    <t>2013-04</t>
-  </si>
-  <si>
-    <t>2013-05</t>
-  </si>
-  <si>
-    <t>2013-06</t>
-  </si>
-  <si>
-    <t>2013-07</t>
-  </si>
-  <si>
-    <t>2013-08</t>
-  </si>
-  <si>
-    <t>2013-09</t>
-  </si>
-  <si>
-    <t>2013-10</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2014-01</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>2014-03</t>
-  </si>
-  <si>
-    <t>2014-04</t>
-  </si>
-  <si>
-    <t>2014-05</t>
-  </si>
-  <si>
-    <t>2014-06</t>
-  </si>
-  <si>
-    <t>2014-07</t>
-  </si>
-  <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2014-09</t>
-  </si>
-  <si>
-    <t>2014-10</t>
-  </si>
-  <si>
-    <t>2014-11</t>
-  </si>
-  <si>
-    <t>2014-12</t>
-  </si>
-  <si>
-    <t>2015-01</t>
-  </si>
-  <si>
-    <t>2015-02</t>
-  </si>
-  <si>
-    <t>2015-03</t>
-  </si>
-  <si>
-    <t>2015-04</t>
-  </si>
-  <si>
-    <t>2015-05</t>
-  </si>
-  <si>
-    <t>2015-06</t>
-  </si>
-  <si>
-    <t>2015-07</t>
-  </si>
-  <si>
-    <t>2015-08</t>
-  </si>
-  <si>
-    <t>2015-09</t>
-  </si>
-  <si>
-    <t>2015-10</t>
-  </si>
-  <si>
-    <t>2015-11</t>
-  </si>
-  <si>
-    <t>2015-12</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
-    <t>2016-02</t>
-  </si>
-  <si>
-    <t>2016-03</t>
-  </si>
-  <si>
-    <t>2016-04</t>
-  </si>
-  <si>
-    <t>2016-05</t>
-  </si>
-  <si>
-    <t>2016-06</t>
-  </si>
-  <si>
-    <t>2016-07</t>
-  </si>
-  <si>
-    <t>2016-08</t>
-  </si>
-  <si>
-    <t>2016-09</t>
-  </si>
-  <si>
-    <t>2016-10</t>
-  </si>
-  <si>
-    <t>2016-11</t>
-  </si>
-  <si>
-    <t>2016-12</t>
-  </si>
-  <si>
-    <t>2017-01</t>
-  </si>
-  <si>
-    <t>2017-02</t>
-  </si>
-  <si>
-    <t>2017-03</t>
-  </si>
-  <si>
-    <t>2017-04</t>
-  </si>
-  <si>
-    <t>2017-05</t>
-  </si>
-  <si>
-    <t>2017-06</t>
-  </si>
-  <si>
-    <t>2017-07</t>
-  </si>
-  <si>
-    <t>2017-08</t>
-  </si>
-  <si>
-    <t>2017-09</t>
-  </si>
-  <si>
-    <t>2017-10</t>
-  </si>
-  <si>
-    <t>2017-11</t>
-  </si>
-  <si>
-    <t>2017-12</t>
-  </si>
-  <si>
-    <t>2018-01</t>
-  </si>
-  <si>
-    <t>2018-02</t>
-  </si>
-  <si>
-    <t>2018-03</t>
-  </si>
-  <si>
-    <t>2018-04</t>
-  </si>
-  <si>
-    <t>2018-05</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>2018-07</t>
-  </si>
-  <si>
-    <t>2018-08</t>
-  </si>
-  <si>
-    <t>2018-09</t>
-  </si>
-  <si>
-    <t>2018-10</t>
-  </si>
-  <si>
-    <t>2018-11</t>
-  </si>
-  <si>
-    <t>2018-12</t>
-  </si>
-  <si>
-    <t>2019-01</t>
-  </si>
-  <si>
-    <t>2019-02</t>
-  </si>
-  <si>
-    <t>2019-03</t>
-  </si>
-  <si>
-    <t>2019-04</t>
-  </si>
-  <si>
-    <t>2019-05</t>
-  </si>
-  <si>
-    <t>2019-06</t>
-  </si>
-  <si>
-    <t>2019-07</t>
-  </si>
-  <si>
-    <t>2019-08</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
-    <t>2019-10</t>
-  </si>
-  <si>
-    <t>2019-11</t>
-  </si>
-  <si>
-    <t>2019-12</t>
   </si>
 </sst>
 </file>
@@ -651,28 +651,28 @@
   <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>1374400.8395</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>1209064.0605000001</v>
@@ -691,10 +691,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C4">
         <v>1635696.1055000001</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C5">
         <v>2231942.787</v>
@@ -713,10 +713,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="C6">
         <v>3194546.7464999999</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="C7">
         <v>3896970.5019999999</v>
@@ -735,10 +735,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="C8">
         <v>4953266.1394999996</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="C9">
         <v>5384021.2429999998</v>
@@ -757,10 +757,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="C10">
         <v>5099835.3190000001</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="C11">
         <v>3836382.9334999998</v>
@@ -779,10 +779,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="C12">
         <v>2154009.3820000002</v>
@@ -790,10 +790,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C13">
         <v>1493784.5860000001</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="C14">
         <v>1466127.8470000001</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C15">
         <v>1415328.4539999999</v>
@@ -823,10 +823,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="C16">
         <v>1892369.611</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="C17">
         <v>2418962.392</v>
@@ -845,10 +845,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="C18">
         <v>3717734.0715000001</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C19">
         <v>4131081.1315000001</v>
@@ -867,10 +867,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="C20">
         <v>4791585.1109999996</v>
@@ -878,10 +878,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="C21">
         <v>5930881.2814999996</v>
@@ -889,10 +889,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>188</v>
+        <v>294</v>
       </c>
       <c r="C22">
         <v>5335184.3940000003</v>
@@ -900,10 +900,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="C23">
         <v>4294646.3075000001</v>
@@ -911,10 +911,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C24">
         <v>2234266.5255</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>111</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="C26">
         <v>1575399.43</v>
@@ -944,10 +944,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C27">
         <v>1523244.8900000001</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C28">
         <v>1967114.382</v>
@@ -966,10 +966,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C29">
         <v>2573138.8199999998</v>
@@ -977,10 +977,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C30">
         <v>3863882.7365000001</v>
@@ -988,10 +988,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="C31">
         <v>4530078.7055000002</v>
@@ -999,10 +999,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="C32">
         <v>4952403.8585000001</v>
@@ -1010,10 +1010,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="C33">
         <v>6635626.5609999998</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>200</v>
+        <v>315</v>
       </c>
       <c r="C34">
         <v>5495982.3530000001</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>124</v>
+        <v>200</v>
       </c>
       <c r="C35">
         <v>4293279.0130000003</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C36">
         <v>2264373.3105000001</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C37">
         <v>1740546.1154999998</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="C38">
         <v>1762004.0844999999</v>
@@ -1076,10 +1076,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C39">
         <v>1564925.4809999999</v>
@@ -1087,10 +1087,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C40">
         <v>2017645.2039999999</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>181</v>
@@ -1109,10 +1109,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="C42">
         <v>3775012.628</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="C43">
         <v>4349674.5954999998</v>
@@ -1131,10 +1131,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>330</v>
+        <v>273</v>
       </c>
       <c r="C44">
         <v>5244964.8614999996</v>
@@ -1142,10 +1142,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="C45">
         <v>6748707.5545000006</v>
@@ -1153,10 +1153,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>172</v>
+        <v>282</v>
       </c>
       <c r="C46">
         <v>5415321.6344999997</v>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="C47">
         <v>4161806.4675000003</v>
@@ -1175,10 +1175,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="C48">
         <v>2236997.6554999999</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C49">
         <v>1713806.7975000001</v>
@@ -1197,10 +1197,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C50">
         <v>1691287.2180000001</v>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C51">
         <v>1517503.9065</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C52">
         <v>1898762.267</v>
@@ -1230,10 +1230,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C53">
         <v>2049238.3615000001</v>
@@ -1241,10 +1241,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="C54">
         <v>2749648.2250000001</v>
@@ -1252,10 +1252,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="C55">
         <v>2696148.5614999998</v>
@@ -1263,10 +1263,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C56">
         <v>3482543.9584999997</v>
@@ -1274,10 +1274,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="C57">
         <v>4565837.0244999994</v>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="C58">
         <v>4014930.0060000001</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="C59">
         <v>3190334.4785000002</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>1879625.0445000001</v>
@@ -1318,10 +1318,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61">
         <v>1629470.6444999999</v>
@@ -1329,10 +1329,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C62">
         <v>1568343.6865000001</v>
@@ -1340,10 +1340,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C63">
         <v>1432341.591</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C64">
         <v>1844076.017</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C65">
         <v>2278537.5334999999</v>
@@ -1373,10 +1373,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="C66">
         <v>3095281.5225</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>273</v>
+        <v>187</v>
       </c>
       <c r="C67">
         <v>3489572.0049999999</v>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="C68">
         <v>5032488.4230000004</v>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="C69">
         <v>6323887.8075000001</v>
@@ -1417,10 +1417,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>163</v>
+        <v>281</v>
       </c>
       <c r="C70">
         <v>5306888.341</v>
@@ -1428,10 +1428,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="C71">
         <v>3913758.5260000001</v>
@@ -1439,10 +1439,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C72">
         <v>2293847.1500000004</v>
@@ -1450,10 +1450,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C73">
         <v>2041323.314</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="C74">
         <v>2045340.503</v>
@@ -1472,10 +1472,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C75">
         <v>1806821.939</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C76">
         <v>2270019.0890000002</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C77">
         <v>2870568.622</v>
@@ -1505,10 +1505,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="C78">
         <v>3790524.0460000001</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="C79">
         <v>4406894.2615</v>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>347</v>
+        <v>261</v>
       </c>
       <c r="C80">
         <v>5712974.5259999996</v>
@@ -1538,10 +1538,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>276</v>
+        <v>347</v>
       </c>
       <c r="C81">
         <v>7052432.8300000001</v>
@@ -1549,10 +1549,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>190</v>
+        <v>279</v>
       </c>
       <c r="C82">
         <v>6021357.25</v>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="C83">
         <v>4791438.9629999995</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C84">
         <v>2679419.6880000001</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C85">
         <v>2180880.9160000002</v>
@@ -1593,10 +1593,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C86">
         <v>2226287.8649999998</v>
@@ -1604,10 +1604,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C87">
         <v>1944956.7719999999</v>
@@ -1615,10 +1615,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C88">
         <v>2473146.5320000001</v>
@@ -1626,10 +1626,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="C89">
         <v>3266255.5894999998</v>
@@ -1637,10 +1637,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="C90">
         <v>4219837.4035</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="C91">
         <v>5276253.3020000001</v>
@@ -1659,10 +1659,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="C92">
         <v>6703044.852</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="C93">
         <v>8167150.0839999998</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>202</v>
+        <v>289</v>
       </c>
       <c r="C94">
         <v>6741769.3600000003</v>
@@ -1692,10 +1692,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>136</v>
+        <v>202</v>
       </c>
       <c r="C95">
         <v>5437494.3689999999</v>
@@ -1703,10 +1703,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C96">
         <v>3005516.9419999998</v>
@@ -1714,10 +1714,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C97">
         <v>2398328.9360000002</v>
